--- a/tests/fixtures/orderforms/1508.35.taxprofiler.xlsx
+++ b/tests/fixtures/orderforms/1508.35.taxprofiler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A451D-A978-FF4F-B437-B8419B9432B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9477D-A06B-A54E-94EE-FEE25F4BE8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59080" yWindow="-13500" windowWidth="29880" windowHeight="33360" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13500" windowWidth="60160" windowHeight="33360" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="751">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3516,6 +3516,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>cytology (fixed)</t>
   </si>
 </sst>
 </file>
@@ -5712,8 +5715,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -70695,12 +70698,6 @@
           </x14:formula1>
           <xm:sqref>D15:D394</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE497A2B-81FE-9B4E-B96E-C607ADE86557}">
-          <x14:formula1>
-            <xm:f>'Drop-down lists'!$G$2:$G$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>I15:I394</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64EB9F58-6FDA-8B4A-B5D0-278667DD507F}">
           <x14:formula1>
             <xm:f>'Drop-down lists'!$F$2:$F$209</xm:f>
@@ -70737,6 +70734,12 @@
           </x14:formula1>
           <xm:sqref>C15 C16:C17 C19:C394 C18</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE497A2B-81FE-9B4E-B96E-C607ADE86557}">
+          <x14:formula1>
+            <xm:f>'Drop-down lists'!$G$2:$G$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>I15:I394</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -70750,8 +70753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL313"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -71164,7 +71167,7 @@
         <v>114</v>
       </c>
       <c r="G10" s="123" t="s">
-        <v>536</v>
+        <v>750</v>
       </c>
       <c r="M10" s="118" t="s">
         <v>116</v>
@@ -71188,7 +71191,7 @@
         <v>118</v>
       </c>
       <c r="G11" s="123" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M11" s="122" t="s">
         <v>120</v>
@@ -71210,8 +71213,8 @@
       <c r="F12" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="138" t="s">
-        <v>562</v>
+      <c r="G12" s="123" t="s">
+        <v>535</v>
       </c>
       <c r="M12" s="122" t="s">
         <v>125</v>
@@ -71234,8 +71237,8 @@
       <c r="F13" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="123" t="s">
-        <v>110</v>
+      <c r="G13" s="138" t="s">
+        <v>562</v>
       </c>
       <c r="M13" s="118" t="s">
         <v>130</v>
@@ -71258,8 +71261,8 @@
       <c r="F14" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="116" t="s">
-        <v>115</v>
+      <c r="G14" s="123" t="s">
+        <v>110</v>
       </c>
       <c r="M14" s="122" t="s">
         <v>134</v>
@@ -71284,7 +71287,7 @@
         <v>137</v>
       </c>
       <c r="G15" s="116" t="s">
-        <v>532</v>
+        <v>115</v>
       </c>
       <c r="M15" s="122" t="s">
         <v>139</v>
@@ -71309,7 +71312,7 @@
         <v>141</v>
       </c>
       <c r="G16" s="116" t="s">
-        <v>119</v>
+        <v>532</v>
       </c>
       <c r="M16" s="118" t="s">
         <v>142</v>
@@ -71334,7 +71337,7 @@
         <v>145</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M17" s="122" t="s">
         <v>146</v>
@@ -71358,7 +71361,7 @@
         <v>148</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M18" s="118" t="s">
         <v>149</v>
@@ -71382,7 +71385,7 @@
         <v>151</v>
       </c>
       <c r="G19" s="116" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M19" s="122" t="s">
         <v>152</v>
@@ -71406,7 +71409,7 @@
         <v>154</v>
       </c>
       <c r="G20" s="116" t="s">
-        <v>533</v>
+        <v>133</v>
       </c>
       <c r="M20" s="122" t="s">
         <v>155</v>
@@ -71430,7 +71433,7 @@
         <v>157</v>
       </c>
       <c r="G21" s="116" t="s">
-        <v>138</v>
+        <v>533</v>
       </c>
       <c r="M21" s="118" t="s">
         <v>158</v>
@@ -71454,6 +71457,9 @@
       <c r="F22" s="116" t="s">
         <v>160</v>
       </c>
+      <c r="G22" s="116" t="s">
+        <v>138</v>
+      </c>
       <c r="M22" s="122" t="s">
         <v>161</v>
       </c>
@@ -71492,7 +71498,6 @@
       <c r="F24" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="126"/>
       <c r="M24" s="118" t="s">
         <v>168</v>
       </c>
@@ -71632,6 +71637,7 @@
       <c r="F31" s="116" t="s">
         <v>189</v>
       </c>
+      <c r="G31" s="126"/>
       <c r="M31" s="122" t="s">
         <v>190</v>
       </c>
@@ -73704,7 +73710,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eJGU3TnrM7TUS36P6EF6OoUepfRxqvEYBttmdh2jpK/p0PFzl3txM9S88hoDVu8ScxrhCTA1475ID05WI3/y1w==" saltValue="ht+aVAqcEGcaWx2xT5yeQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9AioqsxA6wQ6Xgjnw9rfp873Chb8U7afpO1qv08cPmh0lg39IhJ3P8bLWqxkZKqYJtP+W8fNXDP9IsKIMnfPuQ==" saltValue="EYDOJIKPEs7CPQSzgljXeg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/fixtures/orderforms/1508.35.taxprofiler.xlsx
+++ b/tests/fixtures/orderforms/1508.35.taxprofiler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9477D-A06B-A54E-94EE-FEE25F4BE8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B771D07-AF29-2145-85F0-5A6C927495A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-13500" windowWidth="60160" windowHeight="33360" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13480" windowWidth="60160" windowHeight="33340" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -2319,9 +2319,6 @@
       <t xml:space="preserve">Options available in drop-down list.
 </t>
     </r>
-  </si>
-  <si>
-    <t>This information is required  for data analysis with MIP (germline) and Tomte</t>
   </si>
   <si>
     <t>This information is optional for FFPE samples</t>
@@ -3519,6 +3516,9 @@
   </si>
   <si>
     <t>cytology (fixed)</t>
+  </si>
+  <si>
+    <t>This information is required  for data analysis with MIP, raredisease (germline) and Tomte</t>
   </si>
 </sst>
 </file>
@@ -5390,7 +5390,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5438,17 +5438,17 @@
     </row>
     <row r="18" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="96" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="140" x14ac:dyDescent="0.15">
       <c r="A20" s="96" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -5458,7 +5458,7 @@
     </row>
     <row r="22" spans="1:1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5468,7 +5468,7 @@
     </row>
     <row r="24" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="96" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5483,27 +5483,27 @@
     </row>
     <row r="27" spans="1:1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="112" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="96" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="95" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="127" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="155" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5525,7 +5525,7 @@
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="96" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -5542,20 +5542,20 @@
     </row>
     <row r="38" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="95" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B38" s="94"/>
       <c r="D38" s="94"/>
     </row>
     <row r="39" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D39" s="94"/>
     </row>
     <row r="40" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="95" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -5595,7 +5595,7 @@
     </row>
     <row r="48" spans="1:4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="98" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -5615,7 +5615,7 @@
     </row>
     <row r="52" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="95" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5625,12 +5625,12 @@
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="109" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="95" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -5645,7 +5645,7 @@
     </row>
     <row r="58" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="95" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -5715,8 +5715,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="T9"/>
       <c r="U9" s="163" t="s">
-        <v>682</v>
+        <v>750</v>
       </c>
       <c r="V9" s="164"/>
       <c r="W9" s="164"/>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="AA9" s="34"/>
       <c r="AB9" s="161" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AC9" s="161"/>
       <c r="AD9" s="161"/>
@@ -13366,7 +13366,7 @@
     </row>
     <row r="15" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="65" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B15" s="66" t="s">
         <v>66</v>
@@ -13378,7 +13378,7 @@
         <v>488</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>566</v>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="70" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q15" s="85" t="s">
         <v>72</v>
@@ -13432,7 +13432,7 @@
       <c r="AH15" s="70"/>
       <c r="AI15" s="88"/>
       <c r="AJ15" s="70" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -14427,7 +14427,7 @@
     </row>
     <row r="16" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="65" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B16" s="66" t="s">
         <v>66</v>
@@ -14439,7 +14439,7 @@
         <v>488</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>566</v>
@@ -15482,7 +15482,7 @@
     </row>
     <row r="17" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="65" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>66</v>
@@ -15494,7 +15494,7 @@
         <v>488</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F17" s="67" t="s">
         <v>566</v>
@@ -16537,7 +16537,7 @@
     </row>
     <row r="18" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>66</v>
@@ -16549,7 +16549,7 @@
         <v>488</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>566</v>
@@ -17592,7 +17592,7 @@
     </row>
     <row r="19" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="65" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B19" s="66" t="s">
         <v>66</v>
@@ -17604,7 +17604,7 @@
         <v>488</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F19" s="67" t="s">
         <v>566</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="20" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B20" s="66" t="s">
         <v>66</v>
@@ -18659,7 +18659,7 @@
         <v>488</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F20" s="67" t="s">
         <v>566</v>
@@ -19702,7 +19702,7 @@
     </row>
     <row r="21" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="65" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>66</v>
@@ -19714,7 +19714,7 @@
         <v>488</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F21" s="67" t="s">
         <v>566</v>
@@ -20757,7 +20757,7 @@
     </row>
     <row r="22" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>66</v>
@@ -20769,7 +20769,7 @@
         <v>488</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>566</v>
@@ -21812,7 +21812,7 @@
     </row>
     <row r="23" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="65" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>66</v>
@@ -21824,7 +21824,7 @@
         <v>488</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F23" s="67" t="s">
         <v>566</v>
@@ -22867,7 +22867,7 @@
     </row>
     <row r="24" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B24" s="66" t="s">
         <v>66</v>
@@ -22879,7 +22879,7 @@
         <v>488</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>566</v>
@@ -23922,7 +23922,7 @@
     </row>
     <row r="25" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>66</v>
@@ -23934,7 +23934,7 @@
         <v>488</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F25" s="67" t="s">
         <v>566</v>
@@ -24977,7 +24977,7 @@
     </row>
     <row r="26" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B26" s="66" t="s">
         <v>66</v>
@@ -24989,7 +24989,7 @@
         <v>488</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F26" s="67" t="s">
         <v>566</v>
@@ -26032,7 +26032,7 @@
     </row>
     <row r="27" spans="1:1026" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B27" s="66" t="s">
         <v>66</v>
@@ -26044,7 +26044,7 @@
         <v>488</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F27" s="67" t="s">
         <v>566</v>
@@ -26098,7 +26098,7 @@
     </row>
     <row r="28" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="65" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>66</v>
@@ -26110,7 +26110,7 @@
         <v>488</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F28" s="67" t="s">
         <v>566</v>
@@ -27153,7 +27153,7 @@
     </row>
     <row r="29" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B29" s="66" t="s">
         <v>66</v>
@@ -27165,7 +27165,7 @@
         <v>488</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F29" s="67" t="s">
         <v>566</v>
@@ -28208,7 +28208,7 @@
     </row>
     <row r="30" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B30" s="66" t="s">
         <v>66</v>
@@ -28220,7 +28220,7 @@
         <v>488</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>566</v>
@@ -29263,7 +29263,7 @@
     </row>
     <row r="31" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>66</v>
@@ -29275,7 +29275,7 @@
         <v>488</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F31" s="67" t="s">
         <v>566</v>
@@ -30318,7 +30318,7 @@
     </row>
     <row r="32" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="65" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>66</v>
@@ -30330,7 +30330,7 @@
         <v>488</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F32" s="67" t="s">
         <v>566</v>
@@ -31373,7 +31373,7 @@
     </row>
     <row r="33" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="65" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B33" s="66" t="s">
         <v>66</v>
@@ -31385,7 +31385,7 @@
         <v>488</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>566</v>
@@ -32428,7 +32428,7 @@
     </row>
     <row r="34" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="65" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B34" s="66" t="s">
         <v>66</v>
@@ -32440,7 +32440,7 @@
         <v>488</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F34" s="67" t="s">
         <v>566</v>
@@ -70586,7 +70586,7 @@
       <c r="AJ395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l8y03mXk7SOWxZNDh+NNWzQ/azJqO1AJSQTvwG0Yaz94wgaD3PApXOBnwwmwNFulXcJ70tK6Gs684owG+AdrQA==" saltValue="9CEXPaj4LhzUbhz9GTfvuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p7kMKCuj4mUhneORJf9dKziweSukGO436F1N9KtVXEcBzbUlVnX1NVNLNWRwq9QK9ztElGgVbKVyxPnlXv+mgQ==" saltValue="tOY7AyQC/5kn8lfK2TncdA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
@@ -70753,7 +70753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -70852,7 +70852,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C2" s="114" t="s">
         <v>487</v>
@@ -70906,7 +70906,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C3" s="119" t="s">
         <v>450</v>
@@ -71167,7 +71167,7 @@
         <v>114</v>
       </c>
       <c r="G10" s="123" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M10" s="118" t="s">
         <v>116</v>
@@ -71474,7 +71474,7 @@
       <c r="B23" s="125"/>
       <c r="C23" s="125"/>
       <c r="D23" s="108" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F23" s="116" t="s">
         <v>163</v>
